--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Isaac_Samuel_Schmidely/Auguste_Isaac_Samuel_Schmidely.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Isaac_Samuel_Schmidely/Auguste_Isaac_Samuel_Schmidely.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Isaac Samuel Schmidely est un botaniste suisse, né le 26 janvier 1838 à Genève en Suisse et mort le 28 octobre 1918 à Genève.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Isaac Samuel Schmidely, dit Auguste Schmidely, naît à Genève dans une famille originaire du canton de Vaud. Dans sa jeunesse, il fréquente les écoles Grel, Delapraz et Alizier, et poursuit ensuite son cursus au Collège de Genève. Il entre enfin, de 1854 à 1858, en apprentissage dans la banque Lenoir, Duval et Compagnie. Après s'être intéressé à la faune, il s'engage dans l'étude de la flore, et commence un herbier dès 1870, parallèlement à diverses expériences professionnelles dans le commerce et l'industrie plus ou moins difficiles économiquement. 
 Faisant assez vite partie du cercle des botanistes renommés de Genève, il commence à publier dès 1878. À partir de 1881, il est employé à la banque Lenoir, Poulain et Compagnie, ce qui lui permet de se consacrer plus sereinement à ses études scientifiques. Jusqu'à la fin de sa vie, son sujet d'étude reste la flore vasculaire des environs de Genève, sur un secteur géographique débordant largement sur la France, dans les départements de l'Ain et de la Haute-Savoie. Il étudie en particulier des groupes taxonomiques difficiles, tels que les genres Salix, Rosa, Rubus et Alchemilla. Il participe notamment à lAssociation Rubologique coordonnée par Nicolas Jean Boulay, à la Société helvétique pour l'échange de plantes, et à lHerbarium Alchimillarum normale de Robert Buser. 
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1878 – Quatre nouvelles formes de Rosiers découvertes aux environs de Genève. In Ann. Soc. Bot. Lyon, 7 : 177-181.
 1879-1897 – Observations floristiques diverses. In Bull. Soc. Bot. Genève, sér. 1, 1: 7-9, 2 : 39-41, 3 : 15, 4 : 339, 5 : 260, 8 : 6. Version numérique de la première,de la deuxième,de la troisième,de la quatrième,de la cinquième,de la sixième partie sur Hathi Trust Librairy.
@@ -594,7 +610,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Briquet, J., 1920. – Notice sur la vie et les travaux botaniques de Auguste Schmidely (1838-1918). in Annuaire Cons. Jard. Bot. Genève 21 : 323-337. Version numérique sur Internet Archive.
 Stafleu, F.A., 1985. Taxonomic litterature, éd. 2, 5 : 240. Version numérisée sur Smithsonian librairies.
